--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.022621.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.022621.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3971,12 +3971,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4161,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4199,12 +4199,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5111,12 +5111,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5301,12 +5301,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5795,12 +5795,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6293,12 +6293,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6875,12 +6875,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7069,12 +7069,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7107,12 +7107,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7335,12 +7335,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7525,12 +7525,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7563,12 +7563,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8209,12 +8209,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8901,12 +8901,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8939,12 +8939,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9129,12 +9129,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9357,12 +9357,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9395,12 +9395,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9471,12 +9471,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9813,12 +9813,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
